--- a/data/trans_orig/KIDM_A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A6407B-E65F-42A6-9EEB-D8FDE98CB9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4F95D5-5B39-459A-9B04-F7C45F1064AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{516A9D36-7A22-47FA-8347-E3030EA6DBDB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE2EF45-0E93-4036-B84E-0E56944D1C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -89,7 +89,7 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>11,92%</t>
+    <t>13,1%</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -98,7 +98,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,7 +116,7 @@
     <t>95,58%</t>
   </si>
   <si>
-    <t>88,08%</t>
+    <t>86,9%</t>
   </si>
   <si>
     <t>98,57%</t>
@@ -125,7 +125,7 @@
     <t>97,74%</t>
   </si>
   <si>
-    <t>93,93%</t>
+    <t>93,95%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -137,676 +137,676 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2015 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>97,5%</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED213DA-A356-422B-B619-9A9ED4D76AD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5F40C5-A3C0-4229-A024-39DAD360AEC6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1500,10 +1500,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1512,13 +1512,13 @@
         <v>3387</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -1527,13 +1527,13 @@
         <v>7561</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,13 +1548,13 @@
         <v>206897</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>272</v>
@@ -1563,13 +1563,13 @@
         <v>181733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>585</v>
@@ -1578,13 +1578,13 @@
         <v>388630</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1640,7 +1640,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1652,13 +1652,13 @@
         <v>1460</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1667,13 +1667,13 @@
         <v>726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1682,13 +1682,13 @@
         <v>2186</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,10 +1703,10 @@
         <v>47049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -1718,10 +1718,10 @@
         <v>52681</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1733,13 +1733,13 @@
         <v>99730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1807,13 @@
         <v>5634</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -1822,13 +1822,13 @@
         <v>6085</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -1837,13 +1837,13 @@
         <v>11719</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1858,13 @@
         <v>296528</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>412</v>
@@ -1873,13 +1873,13 @@
         <v>277099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>859</v>
@@ -1888,13 +1888,13 @@
         <v>573627</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,7 +1950,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9A3762-46A9-4275-8707-047907D43AFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0AD834-26E3-47EA-9371-D362173D4188}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1986,7 +1986,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2093,13 +2093,13 @@
         <v>624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2108,13 +2108,13 @@
         <v>1331</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2123,13 +2123,13 @@
         <v>1955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,10 +2144,10 @@
         <v>44538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2159,10 +2159,10 @@
         <v>46576</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2174,13 +2174,13 @@
         <v>91113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2391,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2436,10 +2436,10 @@
         <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,7 +2457,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2469,13 +2469,13 @@
         <v>55473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>155</v>
@@ -2484,13 +2484,13 @@
         <v>108386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2558,13 @@
         <v>11382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2573,13 +2573,13 @@
         <v>9344</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -2588,13 +2588,13 @@
         <v>20726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2609,13 @@
         <v>300830</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -2624,13 +2624,13 @@
         <v>282865</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>840</v>
@@ -2639,13 +2639,13 @@
         <v>583695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,7 +2701,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D69A3D6-B81B-4512-AA86-70448A252BEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60454A9-4997-42F4-A714-248D595B1ACB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2737,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2844,13 +2844,13 @@
         <v>713</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2859,13 +2859,13 @@
         <v>1518</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2874,13 +2874,13 @@
         <v>2231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,10 +2895,10 @@
         <v>35925</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -2910,10 +2910,10 @@
         <v>27711</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2925,13 +2925,13 @@
         <v>63637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2999,13 @@
         <v>1788</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3014,13 +3014,13 @@
         <v>2916</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3029,13 +3029,13 @@
         <v>4703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,10 +3050,10 @@
         <v>213925</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3065,13 +3065,13 @@
         <v>225752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>614</v>
@@ -3080,13 +3080,13 @@
         <v>439678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,7 +3142,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3154,13 +3154,13 @@
         <v>3045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3169,13 +3169,13 @@
         <v>617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3184,13 +3184,13 @@
         <v>3662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3205,13 @@
         <v>70609</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>92</v>
@@ -3220,10 +3220,10 @@
         <v>65654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3235,13 +3235,13 @@
         <v>136263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3309,13 @@
         <v>5546</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3324,13 +3324,13 @@
         <v>5051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3339,13 +3339,13 @@
         <v>10597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3360,13 @@
         <v>320460</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>454</v>
@@ -3375,13 +3375,13 @@
         <v>319117</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>894</v>
@@ -3390,13 +3390,13 @@
         <v>639577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,7 +3452,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3471,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFC92E3-8CBA-484D-BF81-4E173E110B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C001EB-BC66-4F37-A03B-AF00C78C91CD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3488,7 +3488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3595,13 +3595,13 @@
         <v>1790</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3625,13 +3625,13 @@
         <v>1790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,10 +3646,10 @@
         <v>15128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3664,7 +3664,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3676,10 +3676,10 @@
         <v>29037</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3750,13 +3750,13 @@
         <v>1814</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3765,13 +3765,13 @@
         <v>2026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3780,13 +3780,13 @@
         <v>3840</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3801,13 @@
         <v>196147</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>193</v>
@@ -3816,13 +3816,13 @@
         <v>147030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>408</v>
@@ -3831,13 +3831,13 @@
         <v>343177</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,7 +3893,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3911,7 +3911,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3920,13 +3920,13 @@
         <v>605</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3935,13 +3935,13 @@
         <v>605</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3971,10 +3971,10 @@
         <v>39943</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3986,10 +3986,10 @@
         <v>93103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -4060,13 +4060,13 @@
         <v>3603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4075,13 +4075,13 @@
         <v>2631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4090,13 +4090,13 @@
         <v>6235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4111,13 @@
         <v>264435</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>267</v>
@@ -4126,13 +4126,13 @@
         <v>200883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -4141,13 +4141,13 @@
         <v>465317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,7 +4203,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4F95D5-5B39-459A-9B04-F7C45F1064AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{375BB4F5-25D8-4E72-B020-E8AF3E30406C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE2EF45-0E93-4036-B84E-0E56944D1C2A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CA3D7190-4039-4403-B528-3005E53ABF3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="238">
   <si>
     <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,6 +74,15 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -83,27 +92,27 @@
     <t>2,95%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
     <t>2,26%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,05%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -113,19 +122,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
     <t>97,74%</t>
   </si>
   <si>
-    <t>93,95%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>99,27%</t>
@@ -134,679 +134,625 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>1,98%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2016 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>Menores según si su salud general autopercibida es regular o mala (autopercepción menor) en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5F40C5-A3C0-4229-A024-39DAD360AEC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2014E9F0-094A-4445-948B-9912E76E3DA1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1336,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1972</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1351,10 +1297,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1972</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1390,7 +1336,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="7">
-        <v>42582</v>
+        <v>42684</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1405,7 +1351,7 @@
         <v>64</v>
       </c>
       <c r="I5" s="7">
-        <v>42684</v>
+        <v>42582</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1438,34 +1384,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44656</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42582</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>67</v>
-      </c>
-      <c r="I6" s="7">
-        <v>44656</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>131</v>
@@ -1474,13 +1420,13 @@
         <v>87238</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>4174</v>
+        <v>3387</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1506,10 +1452,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>3387</v>
+        <v>4174</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1542,10 +1488,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="D8" s="7">
-        <v>206897</v>
+        <v>181733</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1557,10 +1503,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="I8" s="7">
-        <v>181733</v>
+        <v>206897</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1593,34 +1539,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>277</v>
+      </c>
+      <c r="D9" s="7">
+        <v>185120</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>319</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>211071</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>277</v>
-      </c>
-      <c r="I9" s="7">
-        <v>185120</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>596</v>
@@ -1629,13 +1575,13 @@
         <v>396191</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,31 +1592,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1460</v>
+        <v>726</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>726</v>
+        <v>1460</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>53</v>
@@ -1697,10 +1643,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7">
-        <v>47049</v>
+        <v>52681</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>57</v>
@@ -1709,13 +1655,13 @@
         <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I11" s="7">
-        <v>52681</v>
+        <v>47049</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>59</v>
@@ -1724,7 +1670,7 @@
         <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -1748,34 +1694,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>77</v>
+      </c>
+      <c r="D12" s="7">
+        <v>53407</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>72</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>48509</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>77</v>
-      </c>
-      <c r="I12" s="7">
-        <v>53407</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>149</v>
@@ -1784,13 +1730,13 @@
         <v>101916</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,10 +1747,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>5634</v>
+        <v>6085</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>64</v>
@@ -1816,10 +1762,10 @@
         <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>6085</v>
+        <v>5634</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
@@ -1852,10 +1798,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="D14" s="7">
-        <v>296528</v>
+        <v>277099</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -1867,10 +1813,10 @@
         <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="I14" s="7">
-        <v>277099</v>
+        <v>296528</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
@@ -1903,34 +1849,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>421</v>
+      </c>
+      <c r="D15" s="7">
+        <v>283184</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>455</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>302162</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>421</v>
-      </c>
-      <c r="I15" s="7">
-        <v>283184</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>876</v>
@@ -1939,13 +1885,13 @@
         <v>585346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0AD834-26E3-47EA-9371-D362173D4188}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B732C0DB-2FAB-43E8-B339-46DE44CC6335}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2087,31 +2033,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>624</v>
+        <v>1331</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>85</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1331</v>
+        <v>624</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>87</v>
@@ -2126,10 +2072,10 @@
         <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,34 +2084,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46576</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="7">
         <v>63</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>44538</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>66</v>
-      </c>
-      <c r="I5" s="7">
-        <v>46576</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>129</v>
@@ -2174,13 +2120,13 @@
         <v>91113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,34 +2135,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>68</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47907</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>45162</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>68</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47907</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>132</v>
@@ -2225,13 +2171,13 @@
         <v>93068</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,34 +2188,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5695</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="7">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>10759</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5695</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -2278,7 +2224,7 @@
         <v>16453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>103</v>
@@ -2293,10 +2239,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="D8" s="7">
-        <v>203378</v>
+        <v>180816</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>105</v>
@@ -2305,37 +2251,37 @@
         <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>297</v>
+      </c>
+      <c r="I8" s="7">
+        <v>203378</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H8" s="7">
-        <v>259</v>
-      </c>
-      <c r="I8" s="7">
-        <v>180816</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>556</v>
       </c>
       <c r="N8" s="7">
-        <v>384195</v>
+        <v>384196</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,49 +2290,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>267</v>
+      </c>
+      <c r="D9" s="7">
+        <v>186511</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>313</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>214137</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>267</v>
-      </c>
-      <c r="I9" s="7">
-        <v>186511</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>580</v>
       </c>
       <c r="N9" s="7">
-        <v>400648</v>
+        <v>400649</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,34 +2343,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2318</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2433,13 +2379,13 @@
         <v>2318</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,34 +2394,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>77</v>
+      </c>
+      <c r="D11" s="7">
+        <v>55473</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="7">
         <v>78</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>52913</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>77</v>
-      </c>
-      <c r="I11" s="7">
-        <v>55473</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>155</v>
@@ -2484,13 +2430,13 @@
         <v>108386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,34 +2445,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>80</v>
+      </c>
+      <c r="D12" s="7">
+        <v>57791</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>78</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>52913</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>80</v>
-      </c>
-      <c r="I12" s="7">
-        <v>57791</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>158</v>
@@ -2535,13 +2481,13 @@
         <v>110704</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,34 +2498,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9344</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="7">
         <v>17</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>11382</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9344</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -2588,13 +2534,13 @@
         <v>20726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,34 +2549,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>402</v>
+      </c>
+      <c r="D14" s="7">
+        <v>282865</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="7">
         <v>438</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>300830</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="7">
-        <v>402</v>
-      </c>
-      <c r="I14" s="7">
-        <v>282865</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="M14" s="7">
         <v>840</v>
@@ -2639,13 +2585,13 @@
         <v>583695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,34 +2600,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>415</v>
+      </c>
+      <c r="D15" s="7">
+        <v>292209</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>455</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>312212</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>415</v>
-      </c>
-      <c r="I15" s="7">
-        <v>292209</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>870</v>
@@ -2690,13 +2636,13 @@
         <v>604421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60454A9-4997-42F4-A714-248D595B1ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22AB267-AD4D-45D4-9CD1-DC9A8DCA8E3F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2737,7 +2683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2838,34 +2784,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1518</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>713</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1518</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2874,13 +2820,13 @@
         <v>2231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,34 +2835,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7">
+        <v>27711</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="7">
         <v>50</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>35925</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>40</v>
-      </c>
-      <c r="I5" s="7">
-        <v>27711</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -2925,13 +2871,13 @@
         <v>63637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,34 +2886,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29229</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>51</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>36638</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>42</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29229</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>93</v>
@@ -2976,13 +2922,13 @@
         <v>65868</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,34 +2939,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2916</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1788</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2916</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3029,13 +2975,13 @@
         <v>4703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,34 +2990,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>322</v>
+      </c>
+      <c r="D8" s="7">
+        <v>225752</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="7">
         <v>292</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>213925</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>322</v>
-      </c>
-      <c r="I8" s="7">
-        <v>225752</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>614</v>
@@ -3080,13 +3026,13 @@
         <v>439678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,34 +3041,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>327</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228668</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>294</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>215713</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>327</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228668</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>621</v>
@@ -3131,13 +3077,13 @@
         <v>444381</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,34 +3094,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>617</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3045</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>617</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3184,13 +3130,13 @@
         <v>3662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,34 +3145,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>92</v>
+      </c>
+      <c r="D11" s="7">
+        <v>65654</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7">
         <v>98</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>70609</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="7">
-        <v>92</v>
-      </c>
-      <c r="I11" s="7">
-        <v>65654</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>190</v>
@@ -3235,13 +3181,13 @@
         <v>136263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,34 +3196,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>93</v>
+      </c>
+      <c r="D12" s="7">
+        <v>66271</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>102</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>73654</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>93</v>
-      </c>
-      <c r="I12" s="7">
-        <v>66271</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>195</v>
@@ -3286,13 +3232,13 @@
         <v>139925</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,34 +3249,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5051</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5546</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5051</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3339,13 +3285,13 @@
         <v>10597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,34 +3300,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>454</v>
+      </c>
+      <c r="D14" s="7">
+        <v>319117</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7">
         <v>440</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>320460</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="7">
-        <v>454</v>
-      </c>
-      <c r="I14" s="7">
-        <v>319117</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>894</v>
@@ -3390,13 +3336,13 @@
         <v>639577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,34 +3351,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>462</v>
+      </c>
+      <c r="D15" s="7">
+        <v>324168</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>447</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>326006</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>462</v>
-      </c>
-      <c r="I15" s="7">
-        <v>324168</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>909</v>
@@ -3441,13 +3387,13 @@
         <v>650174</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,7 +3417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C001EB-BC66-4F37-A03B-AF00C78C91CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0E86F8-5096-4408-B1C8-C1D282C4EF26}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3488,7 +3434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3589,49 +3535,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>1790</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1790</v>
+        <v>1767</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,49 +3586,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7">
         <v>19</v>
       </c>
-      <c r="D5" s="7">
-        <v>15128</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
       <c r="I5" s="7">
-        <v>13910</v>
+        <v>14987</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>29037</v>
+        <v>27395</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3637,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>18</v>
-      </c>
       <c r="I6" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,46 +3693,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1814</v>
+        <v>2033</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2026</v>
+        <v>1801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>3840</v>
+        <v>3834</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,49 +3741,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>193</v>
+      </c>
+      <c r="D8" s="7">
+        <v>158112</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="7">
         <v>215</v>
       </c>
-      <c r="D8" s="7">
-        <v>196147</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="7">
-        <v>193</v>
-      </c>
       <c r="I8" s="7">
-        <v>147030</v>
+        <v>201767</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>408</v>
       </c>
       <c r="N8" s="7">
-        <v>343177</v>
+        <v>359879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,49 +3792,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>196</v>
+      </c>
+      <c r="D9" s="7">
+        <v>160145</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>218</v>
       </c>
-      <c r="D9" s="7">
-        <v>197961</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>196</v>
-      </c>
       <c r="I9" s="7">
-        <v>149056</v>
+        <v>203568</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>414</v>
       </c>
       <c r="N9" s="7">
-        <v>347017</v>
+        <v>363713</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,49 +3845,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>617</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>605</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,49 +3896,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7">
+        <v>38135</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7">
         <v>69</v>
       </c>
-      <c r="D11" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="7">
-        <v>56</v>
-      </c>
       <c r="I11" s="7">
-        <v>39943</v>
+        <v>52693</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>125</v>
       </c>
       <c r="N11" s="7">
-        <v>93103</v>
+        <v>90828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,49 +3947,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
         <v>69</v>
       </c>
-      <c r="D12" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>57</v>
-      </c>
       <c r="I12" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
       </c>
       <c r="N12" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,49 +4000,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2650</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
-        <v>3603</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
       <c r="I13" s="7">
-        <v>2631</v>
+        <v>3568</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>6235</v>
+        <v>6218</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,49 +4051,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>267</v>
+      </c>
+      <c r="D14" s="7">
+        <v>208654</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="7">
         <v>303</v>
       </c>
-      <c r="D14" s="7">
-        <v>264435</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H14" s="7">
-        <v>267</v>
-      </c>
       <c r="I14" s="7">
-        <v>200883</v>
+        <v>269448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
       </c>
       <c r="N14" s="7">
-        <v>465317</v>
+        <v>478102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,49 +4102,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>271</v>
+      </c>
+      <c r="D15" s="7">
+        <v>211304</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
         <v>308</v>
       </c>
-      <c r="D15" s="7">
-        <v>268038</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>271</v>
-      </c>
       <c r="I15" s="7">
-        <v>203514</v>
+        <v>273016</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>579</v>
       </c>
       <c r="N15" s="7">
-        <v>471552</v>
+        <v>484320</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
